--- a/Visuals/Tables/Supplementary Table 6.xlsx
+++ b/Visuals/Tables/Supplementary Table 6.xlsx
@@ -29,13 +29,13 @@
       <b val="1"/>
     </font>
     <font>
+      <color rgb="00F1F1F1"/>
+    </font>
+    <font>
       <color rgb="00000000"/>
     </font>
-    <font>
-      <color rgb="00F1F1F1"/>
-    </font>
   </fonts>
-  <fills count="23">
+  <fills count="31">
     <fill>
       <patternFill/>
     </fill>
@@ -44,67 +44,112 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D4D8E2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0097ABC9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="008AA2C5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A3B4CD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A7B6CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00829CC3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ABB9D0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="008FA5C7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00BBC5D7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00C0C9D9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00B7C2D5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D0D5E0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00D9DCE5"/>
+        <fgColor rgb="0092A7C8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F6F3F4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E9E9ED"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="005782BC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00839DC4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DADDE5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F7EAE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00EACDCB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00658ABE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FAF4F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="002369BD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="004678BC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D8A3A0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00BDC6D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D29593"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C77B78"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CBD1DE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A0B1CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00C16D6B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DEB1AE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00E3BFBD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="007594C0"/>
       </patternFill>
     </fill>
     <fill>
@@ -114,41 +159,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0092A7C8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="007192C0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="006489BE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E0B7B5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F4E3E2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F9EFEE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00E5C3C1"/>
+        <fgColor rgb="00F0DBDA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CD8885"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00316FBC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00BC605E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00AF4446"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00B55252"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -162,57 +202,44 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -578,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -589,45 +616,40 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Observation</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>NME</t>
+          <t>CLASSIC</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>CLASSIC</t>
+          <t>JULES</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>JULES</t>
+          <t>LPJ-GUESS-SIMFIRE-BLAZE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>LPJ-GUESS-SIMFIRE-BLAZE</t>
+          <t>LPJ-GUESS-SPITFIRE</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>LPJ-GUESS-SPITFIRE</t>
+          <t>ORCHIDEE-MICT-SPITFIRE</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ORCHIDEE-MICT-SPITFIRE</t>
+          <t>SSiB4</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>SSiB4</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>VISIT</t>
         </is>
@@ -636,132 +658,1236 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>FireCCI5.1</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>$NME_1$</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="D2" s="3" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="E2" s="3" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="F2" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="G2" s="5" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="H2" s="6" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="I2" s="7" t="n">
-        <v>1.17</v>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="E2" s="5" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F2" s="6" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G2" s="7" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H2" s="8" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n"/>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>$NME_3$</t>
-        </is>
-      </c>
-      <c r="C3" s="8" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="D3" s="9" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="E3" s="10" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="F3" s="11" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="G3" s="12" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H3" s="6" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="I3" s="13" t="n">
-        <v>1.06</v>
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>ARP</t>
+        </is>
+      </c>
+      <c r="B3" s="9" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="D3" s="10" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="E3" s="11" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F3" s="12" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G3" s="8" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H3" s="13" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>GFED5</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>$NME_1$</t>
-        </is>
+          <t>CAF</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="n">
+        <v>0.16</v>
       </c>
       <c r="C4" s="14" t="n">
-        <v>0.71</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="E4" s="16" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="F4" s="9" t="n">
-        <v>0.77</v>
+        <v>0.27</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F4" s="16" t="n">
+        <v>0.01</v>
       </c>
       <c r="G4" s="17" t="n">
-        <v>0.73</v>
+        <v>0.23</v>
       </c>
       <c r="H4" s="18" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="I4" s="19" t="n">
-        <v>1.03</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n"/>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>$NME_3$</t>
-        </is>
-      </c>
-      <c r="C5" s="9" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="D5" s="9" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="E5" s="20" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="F5" s="21" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="G5" s="11" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="H5" s="17" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="I5" s="22" t="n">
-        <v>1.14</v>
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>CAR</t>
+        </is>
+      </c>
+      <c r="B5" s="19" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="C5" s="20" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="D5" s="12" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F5" s="8" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G5" s="10" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H5" s="21" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>CAU</t>
+        </is>
+      </c>
+      <c r="B6" s="17" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="D6" s="11" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E6" s="12" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F6" s="10" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G6" s="9" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H6" s="21" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>CNA</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="C7" s="22" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="E7" s="12" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F7" s="13" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G7" s="18" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H7" s="23" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>EAS</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="C8" s="24" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="D8" s="25" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E8" s="20" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F8" s="11" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G8" s="15" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H8" s="26" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>EAU</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="C9" s="9" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D9" s="14" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E9" s="12" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F9" s="27" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G9" s="28" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>ECA</t>
+        </is>
+      </c>
+      <c r="B10" s="29" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="C10" s="24" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="D10" s="27" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E10" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F10" s="24" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G10" s="28" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H10" s="11" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>EEU</t>
+        </is>
+      </c>
+      <c r="B11" s="24" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="D11" s="22" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="E11" s="30" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F11" s="18" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G11" s="13" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H11" s="11" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>ENA</t>
+        </is>
+      </c>
+      <c r="B12" s="29" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="C12" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="D12" s="14" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E12" s="29" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F12" s="11" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G12" s="10" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H12" s="12" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>ESAF</t>
+        </is>
+      </c>
+      <c r="B13" s="27" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C13" s="9" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D13" s="3" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E13" s="8" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G13" s="10" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>ESB</t>
+        </is>
+      </c>
+      <c r="B14" s="12" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="C14" s="24" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="E14" s="26" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F14" s="11" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G14" s="10" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>MDG</t>
+        </is>
+      </c>
+      <c r="B15" s="10" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="D15" s="13" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G15" s="17" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>MED</t>
+        </is>
+      </c>
+      <c r="B16" s="10" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="C16" s="12" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="D16" s="12" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="E16" s="14" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F16" s="5" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G16" s="22" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H16" s="8" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>NAU</t>
+        </is>
+      </c>
+      <c r="B17" s="15" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="C17" s="3" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="D17" s="26" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E17" s="13" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F17" s="13" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G17" s="22" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H17" s="16" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>NCA</t>
+        </is>
+      </c>
+      <c r="B18" s="15" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="C18" s="11" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E18" s="11" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F18" s="23" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G18" s="10" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H18" s="26" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>NEAF</t>
+        </is>
+      </c>
+      <c r="B19" s="12" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="C19" s="15" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="D19" s="14" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E19" s="3" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F19" s="14" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G19" s="27" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H19" s="6" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>NEN</t>
+        </is>
+      </c>
+      <c r="B20" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="C20" s="10" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="D20" s="23" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E20" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F20" s="5" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G20" s="3" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H20" s="6" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>NES</t>
+        </is>
+      </c>
+      <c r="B21" s="19" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="C21" s="17" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="D21" s="11" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E21" s="23" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F21" s="8" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G21" s="15" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H21" s="11" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>NEU</t>
+        </is>
+      </c>
+      <c r="B22" s="29" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="C22" s="19" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="D22" s="12" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F22" s="24" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G22" s="30" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H22" s="20" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>NSA</t>
+        </is>
+      </c>
+      <c r="B23" s="10" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="C23" s="20" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="D23" s="22" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F23" s="29" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G23" s="3" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H23" s="11" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>NWN</t>
+        </is>
+      </c>
+      <c r="B24" s="23" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="C24" s="3" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="D24" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="E24" s="10" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F24" s="14" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G24" s="18" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H24" s="21" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>NWS</t>
+        </is>
+      </c>
+      <c r="B25" s="27" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C25" s="29" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="D25" s="13" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E25" s="14" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F25" s="11" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G25" s="19" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H25" s="24" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>NZ</t>
+        </is>
+      </c>
+      <c r="B26" s="28" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="C26" s="22" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="D26" s="11" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E26" s="3" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F26" s="22" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G26" s="24" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H26" s="8" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>RAR</t>
+        </is>
+      </c>
+      <c r="B27" s="14" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="C27" s="29" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="D27" s="26" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E27" s="10" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F27" s="25" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G27" s="13" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H27" s="16" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>RFE</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="C28" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="D28" s="20" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E28" s="26" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F28" s="13" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G28" s="10" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H28" s="8" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>SAH</t>
+        </is>
+      </c>
+      <c r="B29" s="11" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="C29" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="D29" s="9" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E29" s="3" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F29" s="23" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G29" s="10" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H29" s="6" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>SAM</t>
+        </is>
+      </c>
+      <c r="B30" s="27" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C30" s="3" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="D30" s="8" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E30" s="5" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F30" s="23" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G30" s="10" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H30" s="21" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>SAS</t>
+        </is>
+      </c>
+      <c r="B31" s="28" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="C31" s="28" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="D31" s="7" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="E31" s="20" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F31" s="20" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G31" s="22" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H31" s="11" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>SAU</t>
+        </is>
+      </c>
+      <c r="B32" s="18" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="C32" s="27" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="D32" s="23" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E32" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F32" s="23" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G32" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H32" s="5" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
+      <c r="B33" s="10" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="C33" s="26" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D33" s="27" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E33" s="5" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F33" s="6" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G33" s="3" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H33" s="11" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="B34" s="10" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="C34" s="17" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="D34" s="8" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E34" s="25" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F34" s="11" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G34" s="23" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H34" s="14" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>SEAF</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="C35" s="3" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="D35" s="12" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="E35" s="29" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F35" s="20" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G35" s="10" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H35" s="21" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>SES</t>
+        </is>
+      </c>
+      <c r="B36" s="22" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="C36" s="14" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="D36" s="10" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="E36" s="13" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F36" s="14" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G36" s="13" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H36" s="5" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>SSA</t>
+        </is>
+      </c>
+      <c r="B37" s="24" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="C37" s="5" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="D37" s="13" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E37" s="9" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F37" s="30" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G37" s="27" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H37" s="6" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>SWS</t>
+        </is>
+      </c>
+      <c r="B38" s="19" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="C38" s="22" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="D38" s="5" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="E38" s="23" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F38" s="25" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G38" s="5" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H38" s="23" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>TIB</t>
+        </is>
+      </c>
+      <c r="B39" s="10" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C39" s="9" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D39" s="24" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="E39" s="29" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F39" s="12" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G39" s="8" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H39" s="26" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>WAF</t>
+        </is>
+      </c>
+      <c r="B40" s="28" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="C40" s="30" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="D40" s="18" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="E40" s="5" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F40" s="16" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G40" s="15" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H40" s="21" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>WCA</t>
+        </is>
+      </c>
+      <c r="B41" s="24" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="C41" s="9" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D41" s="3" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E41" s="17" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F41" s="26" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G41" s="25" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H41" s="20" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>WCE</t>
+        </is>
+      </c>
+      <c r="B42" s="24" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="C42" s="24" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="D42" s="15" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="E42" s="18" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F42" s="14" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G42" s="22" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H42" s="8" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>WNA</t>
+        </is>
+      </c>
+      <c r="B43" s="27" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C43" s="9" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="D43" s="5" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="E43" s="9" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F43" s="29" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G43" s="28" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H43" s="20" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>WSAF</t>
+        </is>
+      </c>
+      <c r="B44" s="10" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="C44" s="20" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="D44" s="15" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="E44" s="14" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F44" s="21" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="G44" s="27" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H44" s="20" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>WSB</t>
+        </is>
+      </c>
+      <c r="B45" s="18" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="C45" s="23" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="D45" s="26" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E45" s="23" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F45" s="18" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G45" s="10" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="H45" s="8" t="n">
+        <v>0.06</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A2:A3"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>